--- a/datastatic/datasets/online/SDG4_PISA_Science_OECD_2015.xlsx
+++ b/datastatic/datasets/online/SDG4_PISA_Science_OECD_2015.xlsx
@@ -53,7 +53,8 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
-    <t xml:space="preserve">The PISA study measures student performance independent of national curricula. It measures to what extent national education systems transmit transferrable knowledge. This indicator shows to what extent students have natural science literacy, which is defined by three competencies: "explain phenomena scientifically, evaluate and design scientific enquiry, interpret data and evidence scientifically". 15-year-olds in each country take tests to assess their competencies in mathematics, reading and natural sciences. The results are rescaled, so that the OECD average in each subject area is at 500 with a standard deviation of 100. As a result, country rankings are more informative than the points scored. </t>
+    <t>The PISA study measures student performance independent of national curricula. It measures to what extent national education systems transmit transferrable knowledge. This indicator shows to what extent students have natural science literacy, which is defined by three competencies: "explain phenomena scientifically, evaluate and design scientific enquiry, interpret data and evidence scientifically". 15-year-olds in each country take tests to assess their competencies in mathematics, reading and natural sciences. The results are rescaled, so that the OECD average in each subject area is at 500 with a standard deviation of 100. As a result, country rankings are more informative than the points scored. 
+PISA is one of the most comprehensive tools to compare education in an international context. Nevertheless, it has been criticised heavily for excerting too much influence over national education policies, putting too much emphasis on assessment and diverging attention from unmeasurable effects of education. For these reasons, we are looking for alternative education indicators, which can be included in the 2030 Watch tool.</t>
   </si>
   <si>
     <t>long_indicator_description$en$baseunit</t>
@@ -65,7 +66,8 @@
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
-    <t xml:space="preserve">Die PISA Studie misst Schülerleistungen unabhängig von Lehrplänen, es wird also gemessen, inwiefern nationale Bildungssysteme anwendbares Wissen vermitteln. 15-Jährige Schüler machen zweistündige Tests, in denen Kompetenzen in den Felern Mathematik, Lesekompetenz und Naturwissenschaften geprüft werden. Hier werden die Ergebnisse für naturwissenschaftliche Kompetenzen gezeigt was definiert ist als: "Fähigkeit, Phänomene naturwissenschaftlich zu erklären, wissenschaftliche Fragestellungen zu entwickeln und zu bewerten und Daten und Beweise wissentschaftlich zu interpretieren." Die errzielten Ergebnisse werden nachträglich skaliert, sodass die OECD Staaten in jedem Feld einen Mittelwert von 500 und eine Standardabweichung von 100 haben. Deswegen sagt das Ranking der Länder mehr aus als die erreichte Punktzahl eines Landes. </t>
+    <t>Die PISA Studie misst Schülerleistungen unabhängig von Lehrplänen, es wird also gemessen, inwiefern nationale Bildungssysteme anwendbares Wissen vermitteln. 15-Jährige Schüler machen zweistündige Tests, in denen Kompetenzen in den Felern Mathematik, Lesekompetenz und Naturwissenschaften geprüft werden. Hier werden die Ergebnisse für naturwissenschaftliche Kompetenzen gezeigt was definiert ist als: "Fähigkeit, Phänomene naturwissenschaftlich zu erklären, wissenschaftliche Fragestellungen zu entwickeln und zu bewerten und Daten und Beweise wissentschaftlich zu interpretieren." Die errzielten Ergebnisse werden nachträglich skaliert, sodass die OECD Staaten in jedem Feld einen Mittelwert von 500 und eine Standardabweichung von 100 haben. Deswegen sagt das Ranking der Länder mehr aus als die erreichte Punktzahl eines Landes. 
+PISA is eine der umfangreichsten Studien, um Bildung international zu vergleichen. Trotzdem wird sie viel kritisiert, unter anderem wegen des großen Einflusses auf nationale Bildungspolitik und des Schwerpunktes auf Leistungsprüfungen, sodass nicht messbare Lerneffekte unter den Tisch fallen. Deswegen suchen wir nach alternativen Bildungsindikatoren für das 2030 Watch Tool.</t>
   </si>
   <si>
     <t>long_indicator_description$de$baseunit</t>

--- a/datastatic/datasets/online/SDG4_PISA_Science_OECD_2015.xlsx
+++ b/datastatic/datasets/online/SDG4_PISA_Science_OECD_2015.xlsx
@@ -637,11 +637,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG4_PISA_Science_OECD_2015.xlsx
+++ b/datastatic/datasets/online/SDG4_PISA_Science_OECD_2015.xlsx
@@ -637,11 +637,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
